--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2534.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2534.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.610686677300817</v>
+        <v>1.848412752151489</v>
       </c>
       <c r="B1">
-        <v>3.544629647995903</v>
+        <v>2.03176736831665</v>
       </c>
       <c r="C1">
-        <v>2.946493894219547</v>
+        <v>2.397714376449585</v>
       </c>
       <c r="D1">
-        <v>1.442148216543042</v>
+        <v>2.996721982955933</v>
       </c>
       <c r="E1">
-        <v>1.378608926053284</v>
+        <v>3.043732881546021</v>
       </c>
     </row>
   </sheetData>
